--- a/medicine/Pharmacie/Classe_ATC_C08/Classe_ATC_C08.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_C08/Classe_ATC_C08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C08, dénommée « Inhibiteurs calciques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC08[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C08, dénommée « Inhibiteurs calciques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC08. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C08CA Dérivés de la dihydropyridine
-C08CA01 Amlodipine
+          <t>C08CA Dérivés de la dihydropyridine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C08CA01 Amlodipine
 C08CA02 Félodipine
 C08CA03 Isradipine
 C08CA04 Nicardipine
@@ -530,9 +547,7 @@
 C08CA14 Cilnidipine (en)
 C08CA15 Bénidipine (en)
 C08CA16 Clévidipine
-C08CA55 Nifédipine en association
-C08CX Autres inhibiteurs calciques sélectifs à effets vasculaires
-C08CX01 Mibéfradil</t>
+C08CA55 Nifédipine en association</t>
         </is>
       </c>
     </row>
@@ -557,17 +572,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C08D Inhibiteurs calciques sélectifs à effets cardiaques directs</t>
+          <t>C08C Inhibiteurs calciques sélectifs à effets vasculaires</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C08DA Dérivés de la phénylalkylamine
-C08DA01 Vérapamil
-C08DA02 Gallopamil (en)
-C08DA51 Vérapamil en association
-C08DB Dérivés de la benzothiazépine
-C08DB01 Diltiazem</t>
+          <t>C08CX Autres inhibiteurs calciques sélectifs à effets vasculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C08CX01 Mibéfradil</t>
         </is>
       </c>
     </row>
@@ -592,17 +608,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C08E Inhibiteurs calciques non sélectifs</t>
+          <t>C08D Inhibiteurs calciques sélectifs à effets cardiaques directs</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C08EA Dérivés de la phénylalkylamine
-C08EA01 Fendiline (en)
-C08EA02 Bépridil (en)
-C08EX Autres inhibiteurs calciques non sélectifs
-C08EX01 Lidoflazine (en)
-C08EX02 Perhexiline (en)</t>
+          <t>C08DA Dérivés de la phénylalkylamine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C08DA01 Vérapamil
+C08DA02 Gallopamil (en)
+C08DA51 Vérapamil en association</t>
         </is>
       </c>
     </row>
@@ -627,13 +646,128 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>C08D Inhibiteurs calciques sélectifs à effets cardiaques directs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C08DB Dérivés de la benzothiazépine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C08DB01 Diltiazem</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C08E Inhibiteurs calciques non sélectifs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C08EA Dérivés de la phénylalkylamine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C08EA01 Fendiline (en)
+C08EA02 Bépridil (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C08E Inhibiteurs calciques non sélectifs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C08EX Autres inhibiteurs calciques non sélectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C08EX01 Lidoflazine (en)
+C08EX02 Perhexiline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>C08G Inhibiteurs calciques et diurétiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>C08GA Inhibiteur calcique et diurétique
-C08GA01 Nifédipine et diurétiques
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C08GA Inhibiteur calcique et diurétique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C08GA01 Nifédipine et diurétiques
 C08GA02 Amlodipine et diurétiques</t>
         </is>
       </c>
